--- a/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -455,16 +455,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>prevInsuNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PrevInsuNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findL4601A</t>
@@ -1092,15 +1084,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNowInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNowInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>InsuEndDate Desc,InsuStartDate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>findNowInsuNoEq</t>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1772,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1771,7 +1787,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1938,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>30</v>
@@ -1956,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>46</v>
@@ -1968,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1976,10 +1992,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>49</v>
@@ -1988,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2035,7 +2051,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>46</v>
@@ -2050,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>31</v>
@@ -2068,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>32</v>
@@ -2080,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2118,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2138,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2257,7 +2273,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>50</v>
@@ -2328,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>88</v>
@@ -2340,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="64.8">
@@ -2351,7 +2367,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>51</v>
@@ -2360,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2519,11 +2535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2553,7 +2569,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2564,7 +2580,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2575,7 +2591,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2602,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2597,7 +2613,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2608,7 +2624,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2619,7 +2635,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2627,10 +2643,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2638,10 +2654,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2652,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2663,7 +2679,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2671,10 +2687,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2682,131 +2698,142 @@
         <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>282</v>
+      <c r="C26" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2839,28 +2866,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2868,13 +2895,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="28">
         <v>6</v>
@@ -2887,7 +2914,7 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2895,13 +2922,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="28">
         <v>2</v>
@@ -2915,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2923,13 +2950,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="28">
         <v>2</v>
@@ -2943,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2951,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" s="28">
         <v>10</v>
@@ -2971,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2979,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="28">
         <v>12</v>
@@ -2999,7 +3026,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3007,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="28">
         <v>10</v>
@@ -3027,7 +3054,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3035,13 +3062,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="28">
         <v>12</v>
@@ -3055,7 +3082,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3063,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="28">
         <v>5</v>
@@ -3089,13 +3116,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="28">
         <v>58</v>
@@ -3109,7 +3136,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3117,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="28">
         <v>9</v>
@@ -3137,7 +3164,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3145,13 +3172,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="28">
         <v>2</v>
@@ -3171,13 +3198,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="28">
         <v>3</v>
@@ -3191,7 +3218,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3199,13 +3226,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="28">
         <v>2</v>
@@ -3219,7 +3246,7 @@
         <v>133</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3227,13 +3254,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -3247,7 +3274,7 @@
         <v>135</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3255,13 +3282,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="28">
         <v>4</v>
@@ -3283,13 +3310,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -3309,13 +3336,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -3335,13 +3362,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="28">
         <v>7</v>
@@ -3361,13 +3388,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -3381,7 +3408,7 @@
         <v>151</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3389,13 +3416,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" s="28">
         <v>16</v>
@@ -3415,13 +3442,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E22" s="28">
         <v>10</v>
@@ -3435,7 +3462,7 @@
         <v>177</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3443,13 +3470,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E23" s="28">
         <v>10</v>
@@ -3463,7 +3490,7 @@
         <v>187</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3471,13 +3498,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="28">
         <v>11</v>
@@ -3491,7 +3518,7 @@
         <v>198</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3499,13 +3526,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E25" s="28">
         <v>7</v>
@@ -3519,7 +3546,7 @@
         <v>205</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3527,13 +3554,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="28">
         <v>7</v>
@@ -3547,7 +3574,7 @@
         <v>212</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3555,13 +3582,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" s="28">
         <v>6</v>
@@ -3575,7 +3602,7 @@
         <v>218</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3583,13 +3610,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E28" s="28">
         <v>7</v>
@@ -3603,7 +3630,7 @@
         <v>225</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3611,13 +3638,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E29" s="28">
         <v>3</v>
@@ -3631,7 +3658,7 @@
         <v>228</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3639,13 +3666,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" s="28">
         <v>4</v>
@@ -3665,13 +3692,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E31" s="28">
         <v>14</v>
@@ -3685,7 +3712,7 @@
         <v>246</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3693,13 +3720,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E32" s="28">
         <v>16</v>
@@ -3713,16 +3740,16 @@
         <v>262</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J32" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
         <v>257</v>
-      </c>
-      <c r="K32" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3730,13 +3757,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33" s="28">
         <v>10</v>
@@ -3750,13 +3777,13 @@
         <v>272</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
         <v>256</v>
-      </c>
-      <c r="J33" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3764,13 +3791,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E34" s="28">
         <v>10</v>
@@ -3784,13 +3811,13 @@
         <v>282</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
         <v>256</v>
-      </c>
-      <c r="J34" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3798,13 +3825,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="28">
         <v>11</v>
@@ -3818,13 +3845,13 @@
         <v>293</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
         <v>256</v>
-      </c>
-      <c r="J35" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3832,13 +3859,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="28">
         <v>7</v>
@@ -3852,13 +3879,13 @@
         <v>300</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
         <v>256</v>
-      </c>
-      <c r="J36" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3866,13 +3893,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" s="28">
         <v>8</v>
@@ -3886,13 +3913,13 @@
         <v>308</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
         <v>256</v>
-      </c>
-      <c r="J37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3900,13 +3927,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E38" s="28">
         <v>6</v>
@@ -3920,13 +3947,13 @@
         <v>314</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38" t="s">
         <v>256</v>
-      </c>
-      <c r="J38" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3934,13 +3961,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E39" s="28">
         <v>7</v>
@@ -3954,13 +3981,13 @@
         <v>321</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
         <v>256</v>
-      </c>
-      <c r="J39" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3968,13 +3995,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E40" s="28">
         <v>16</v>
@@ -3994,13 +4021,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E41" s="28">
         <v>60</v>
@@ -4020,13 +4047,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E42" s="28">
         <v>39</v>
@@ -4046,13 +4073,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" s="28">
         <v>10</v>
@@ -4072,13 +4099,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" s="28">
         <v>6</v>
@@ -4098,13 +4125,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E45" s="28">
         <v>10</v>
@@ -4124,13 +4151,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E46" s="28">
         <v>6</v>
@@ -4144,7 +4171,7 @@
         <v>468</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4152,13 +4179,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E47" s="28">
         <v>8</v>
@@ -4178,13 +4205,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E48" s="28">
         <v>10</v>

--- a/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="290">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1118,6 +1118,12 @@
   <si>
     <t>InsuEndDate Desc,InsuStartDate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommericalFlag</t>
+  </si>
+  <si>
+    <t>住宅險改商業險註記</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2419,16 +2425,18 @@
       <c r="A39" s="19">
         <v>29</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>108</v>
+      <c r="B39" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1</v>
+      </c>
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7">
@@ -2436,17 +2444,15 @@
         <v>30</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="25">
-        <v>6</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E40" s="25"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7">
@@ -2454,15 +2460,17 @@
         <v>31</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="E41" s="25">
+        <v>6</v>
+      </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7">
@@ -2470,25 +2478,33 @@
         <v>32</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19">
+        <v>33</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="25">
         <v>6</v>
       </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="25"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7">
@@ -2514,6 +2530,14 @@
       <c r="D46" s="21"/>
       <c r="E46" s="25"/>
       <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="25"/>
+      <c r="G47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2537,7 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
